--- a/biology/Zoologie/Gallotia_galloti/Gallotia_galloti.xlsx
+++ b/biology/Zoologie/Gallotia_galloti/Gallotia_galloti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gallotia galloti est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gallotia galloti est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des îles Canaries[1]. Elle se rencontre à Tenerife et à La Palma
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des îles Canaries. Elle se rencontre à Tenerife et à La Palma
 Elle a été introduite à El Hierro et à Fuerteventura.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle peut atteindre la taille de 40 cm, queue comprise.
 Contrairement à la plupart des espèces plus grandes de ce genre, ce lézard est relativement commun sur ces îles. Il consomme des fruits, et peut devenir une nuisance dans les vergers, où il est parfois chassé, sans que cela présente à l'heure actuelle un réel danger pour les populations installées. La sous-espèce G. g. insulanagae est considérée comme vulnérable de par sa répartition exclusive sur une zone réduite. Toutefois, cette zone est difficile d'accès, ce qui la protège des actions humaines.
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 janvier 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2012) :
 Gallotia galloti eisentrauti Bischoff, 1982
 Gallotia galloti galloti (Oudart, 1839)
 Gallotia galloti insulanagae Martin, 1985
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bischoff, 1982 : Die innerartliche Gliederung von Gallotia galloti (Dumeril &amp; Bibron 1839) (Reptilia: Sauria: Lacertidae) auf Teneriffa, Kanarische Inseln. Bonner Zoologische Beitraege, vol. 33, no 2/4, p. 363-382.
 Boettger &amp; Müller, 1914 : Preliminary notes on the loal races of some Canarian lizards. Annals and Magazine of Natural History, sér. 8, vol. 14, p. 67-78 (texte intégral).
